--- a/public/data/Future Rebate Chargeback Accrual Forecast Report - Month.xlsx
+++ b/public/data/Future Rebate Chargeback Accrual Forecast Report - Month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Task\MS_Report\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BACE29-30EF-4CB7-ABFA-FC5D55239EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813F39A7-A636-4C9E-BDE1-BB3529207C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74AC14C-34B7-4771-908D-12AEE6E758F2}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,17 +1663,20 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="E32:J32"/>
     <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
